--- a/config_ios提审/item_config.xlsx
+++ b/config_ios提审/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="467">
   <si>
     <t>id|行号</t>
   </si>
@@ -1531,38 +1531,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>免费子弹-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级火力-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍时刻-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超速子弹-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻头弹-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透子弹-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费超级火力-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_btn_bd</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1778,10 +1746,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>召唤-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>免费子弹</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1977,6 +1941,30 @@
   </si>
   <si>
     <t>prop_fishbowl_glass</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级火力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍时刻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤彩金鱼</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2454,8 +2442,8 @@
   <dimension ref="A1:R125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2616,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2649,15 +2637,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2715,15 +2703,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2748,15 +2736,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -4131,7 +4119,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D48" s="3">
         <v>-1</v>
@@ -4165,7 +4153,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D49" s="3">
         <v>-1</v>
@@ -4337,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4375,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4413,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -4990,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -5028,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -5152,7 +5140,7 @@
         <v>279</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>333</v>
@@ -5240,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -5249,13 +5237,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="J80" s="13" t="s">
         <v>288</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
@@ -5287,7 +5275,7 @@
         <v>291</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="L81" s="6" t="s">
         <v>299</v>
@@ -5325,7 +5313,7 @@
         <v>294</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>300</v>
@@ -5715,7 +5703,7 @@
         <v>330</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L94" s="6" t="s">
         <v>334</v>
@@ -5843,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -5852,10 +5840,10 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="N98">
         <v>9</v>
@@ -5878,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -5887,10 +5875,10 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>362</v>
+        <v>461</v>
       </c>
       <c r="N99">
         <v>9</v>
@@ -5913,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -5922,10 +5910,10 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>363</v>
+        <v>462</v>
       </c>
       <c r="N100">
         <v>9</v>
@@ -5948,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -5957,10 +5945,10 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="N101">
         <v>9</v>
@@ -5983,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -5992,10 +5980,10 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>365</v>
+        <v>463</v>
       </c>
       <c r="N102">
         <v>9</v>
@@ -6009,7 +5997,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D103" s="3">
         <v>-1</v>
@@ -6018,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -6027,10 +6015,10 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>366</v>
+        <v>464</v>
       </c>
       <c r="N103">
         <v>9</v>
@@ -6044,7 +6032,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -6053,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -6062,10 +6050,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="N104">
         <v>9</v>
@@ -6088,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -6097,10 +6085,10 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="N105">
         <v>9</v>
@@ -6123,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -6132,10 +6120,10 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>367</v>
+        <v>465</v>
       </c>
       <c r="N106">
         <v>9</v>
@@ -6149,7 +6137,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D107" s="3">
         <v>-1</v>
@@ -6158,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G107" s="3">
         <v>1</v>
@@ -6167,7 +6155,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="J107" s="6" t="s">
         <v>175</v>
@@ -6186,7 +6174,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -6195,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G108" s="3">
         <v>1</v>
@@ -6204,7 +6192,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>179</v>
@@ -6223,7 +6211,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D109" s="3">
         <v>-1</v>
@@ -6232,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
@@ -6241,10 +6229,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6255,7 +6243,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D110" s="3">
         <v>-1</v>
@@ -6264,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -6273,13 +6261,13 @@
         <v>34</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6290,7 +6278,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D111" s="3">
         <v>-1</v>
@@ -6299,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
@@ -6308,10 +6296,10 @@
         <v>1</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>176</v>
@@ -6331,7 +6319,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D112" s="3">
         <v>-1</v>
@@ -6340,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G112" s="3">
         <v>1</v>
@@ -6349,10 +6337,10 @@
         <v>1</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>176</v>
@@ -6372,7 +6360,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D113" s="3">
         <v>-1</v>
@@ -6381,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
@@ -6390,10 +6378,10 @@
         <v>1</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>176</v>
@@ -6413,7 +6401,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D114" s="3">
         <v>-1</v>
@@ -6422,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
@@ -6431,10 +6419,10 @@
         <v>1</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L114" s="6" t="s">
         <v>176</v>
@@ -6454,7 +6442,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D115" s="3">
         <v>-1</v>
@@ -6463,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
@@ -6472,10 +6460,10 @@
         <v>1</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L115" s="6" t="s">
         <v>176</v>
@@ -6495,7 +6483,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D116" s="3">
         <v>-1</v>
@@ -6504,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
@@ -6513,10 +6501,10 @@
         <v>1</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="L116" s="6" t="s">
         <v>176</v>
@@ -6536,7 +6524,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D117" s="3">
         <v>-1</v>
@@ -6545,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G117" s="3">
         <v>0</v>
@@ -6554,10 +6542,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
@@ -6570,7 +6558,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D118" s="3">
         <v>-1</v>
@@ -6579,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
@@ -6588,10 +6576,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6602,7 +6590,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D119" s="3">
         <v>-1</v>
@@ -6611,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G119" s="3">
         <v>0</v>
@@ -6620,10 +6608,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6634,7 +6622,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="D120" s="3">
         <v>-1</v>
@@ -6643,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
@@ -6652,10 +6640,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="121" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6666,7 +6654,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D121" s="3">
         <v>-1</v>
@@ -6675,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G121" s="3">
         <v>0</v>
@@ -6684,10 +6672,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="122" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6698,7 +6686,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D122" s="3">
         <v>-1</v>
@@ -6707,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G122" s="3">
         <v>0</v>
@@ -6716,10 +6704,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="123" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6730,7 +6718,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D123" s="3">
         <v>-1</v>
@@ -6739,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6748,10 +6736,10 @@
         <v>38</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6762,7 +6750,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D124" s="3">
         <v>-1</v>
@@ -6771,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -6780,10 +6768,10 @@
         <v>39</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6794,7 +6782,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D125" s="3">
         <v>-1</v>
@@ -6803,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -6812,10 +6800,10 @@
         <v>40</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
